--- a/data/trans_bre/P16A12-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P16A12-Edad-trans_bre.xlsx
@@ -566,7 +566,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">

--- a/data/trans_bre/P16A12-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P16A12-Edad-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -620,42 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,2</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,3</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,22</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,31</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>71,69%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>inf%</t>
         </is>
       </c>
     </row>
@@ -668,22 +668,22 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,13; 0,0</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,57; 1,45</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,21; 0,0</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 1,83</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,08</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,26</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,15</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,25</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>34,44%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-17,18%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>44,65%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-58,05%</t>
         </is>
       </c>
     </row>
@@ -768,32 +768,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
+          <t>-0,59; 0,69</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>-1,79; 1,14</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>-0,53; 0,85</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>-1,86; 0,35</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-79,43; 149,55</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,88</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,14</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,18</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,99</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-49,65%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>199,2%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-13,92%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-50,8%</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,12; 0,29</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,17; 2,44</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,35; 0,87</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,58; 0,24</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-83,99; 37,39</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,27; 1235,76</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-70,3; 158,66</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-82,54; 31,37</t>
         </is>
       </c>
     </row>
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,14</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,15</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,34</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,96</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-25,52%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-4,17%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-42,42%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-50,42%</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,5; 1,11</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,24; 1,96</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,89; -0,09</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,23; -0,83</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-62,64; 38,05</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-49,09; 72,64</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-69,11; 1,63</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-69,0; -17,71</t>
         </is>
       </c>
     </row>
@@ -1020,42 +1020,42 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,03</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,06</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,04</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-6,0</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-16,8%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,48%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-8,21%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-47,65%</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,26; 2,41</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,18; 4,69</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,21; 3,21</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,05; -3,0</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-43,71; 26,59</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-32,06; 52,81</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-35,09; 32,03</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-61,83; -27,57</t>
         </is>
       </c>
     </row>
@@ -1120,42 +1120,42 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,87</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,46</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-5,42</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,57</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>4,41%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-5,06%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-18,19%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-14,89%</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,49; 5,24</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,7; 3,65</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,2; -0,19</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,6; 0,34</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-15,74; 30,88</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-21,11; 13,9</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-31,32; -0,16</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-42,29; 1,44</t>
         </is>
       </c>
     </row>
@@ -1220,42 +1220,42 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,49</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,15</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,52</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,5</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>8,68%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>15,7%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-6,22%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-17,05%</t>
         </is>
       </c>
     </row>
@@ -1268,42 +1268,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,69; 1,48</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,22; 2,43</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,75; 1,14</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,68; -0,38</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,07; 29,31</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,67; 36,54</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-19,65; 14,98</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-28,28; -4,5</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P16A12-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P16A12-Edad-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J18"/>
+  <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>16-24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -635,7 +635,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,31</t>
+          <t>0,35</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -683,7 +683,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,83</t>
+          <t>0,0; 2,03</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -710,7 +710,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>25-34</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -735,7 +735,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-0,25</t>
+          <t>-0,3</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -755,7 +755,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-58,05%</t>
+          <t>-65,66%</t>
         </is>
       </c>
     </row>
@@ -783,7 +783,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-1,86; 0,35</t>
+          <t>-2,37; 0,28</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -810,7 +810,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -835,7 +835,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-0,99</t>
+          <t>-0,96</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -855,7 +855,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-50,8%</t>
+          <t>-50,11%</t>
         </is>
       </c>
     </row>
@@ -883,7 +883,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-2,58; 0,24</t>
+          <t>-2,51; 0,24</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -903,14 +903,14 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-82,54; 31,37</t>
+          <t>-82,33; 33,07</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -935,7 +935,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-2,96</t>
+          <t>-1,83</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -955,7 +955,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-50,42%</t>
+          <t>-39,49%</t>
         </is>
       </c>
     </row>
@@ -983,7 +983,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-5,23; -0,83</t>
+          <t>-4,35; 1,29</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1003,14 +1003,14 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-69,0; -17,71</t>
+          <t>-63,56; 51,09</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1035,7 +1035,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-6,0</t>
+          <t>-6,18</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1055,7 +1055,7 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-47,65%</t>
+          <t>-48,21%</t>
         </is>
       </c>
     </row>
@@ -1083,7 +1083,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-9,05; -3,0</t>
+          <t>-9,24; -3,16</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1103,14 +1103,14 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-61,83; -27,57</t>
+          <t>-62,57; -28,9</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>65 y más</t>
+          <t>65-74</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1120,42 +1120,42 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0,87</t>
+          <t>1,27</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-1,46</t>
+          <t>-5,0</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-5,42</t>
+          <t>-4,95</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-3,57</t>
+          <t>-10,34</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>4,41%</t>
+          <t>6,52%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-5,06%</t>
+          <t>-17,25%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>-18,19%</t>
+          <t>-18,29%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>-14,89%</t>
+          <t>-49,38%</t>
         </is>
       </c>
     </row>
@@ -1168,49 +1168,49 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-3,49; 5,24</t>
+          <t>-4,47; 7,08</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-6,7; 3,65</t>
+          <t>-12,21; 1,76</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-10,2; -0,19</t>
+          <t>-11,22; 1,3</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-10,6; 0,34</t>
+          <t>-18,74; -3,96</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-15,74; 30,88</t>
+          <t>-19,55; 42,68</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-21,11; 13,9</t>
+          <t>-37,28; 6,94</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-31,32; -0,16</t>
+          <t>-37,06; 5,24</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-42,29; 1,44</t>
+          <t>-81,78; -18,4</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>75 o más</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1220,42 +1220,42 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,49</t>
+          <t>0,38</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>1,15</t>
+          <t>1,8</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-0,52</t>
+          <t>-6,83</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-1,5</t>
+          <t>1,45</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>8,68%</t>
+          <t>1,89%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>15,7%</t>
+          <t>6,26%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>-6,22%</t>
+          <t>-20,51%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>-17,05%</t>
+          <t>5,12%</t>
         </is>
       </c>
     </row>
@@ -1268,54 +1268,154 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
+          <t>-7,42; 7,46</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>-5,62; 9,49</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>-14,06; 0,74</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>-3,58; 6,41</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>-30,44; 44,67</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>-16,97; 39,19</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>-38,51; 2,11</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>-11,28; 26,18</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>0,49</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>1,15</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>-0,52</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>-1,22</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>8,68%</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>15,7%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>-6,22%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>-14,96%</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n"/>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
           <t>-0,69; 1,48</t>
         </is>
       </c>
-      <c r="D17" s="2" t="inlineStr">
+      <c r="D19" s="2" t="inlineStr">
         <is>
           <t>-0,22; 2,43</t>
         </is>
       </c>
-      <c r="E17" s="2" t="inlineStr">
+      <c r="E19" s="2" t="inlineStr">
         <is>
           <t>-1,75; 1,14</t>
         </is>
       </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>-2,68; -0,38</t>
-        </is>
-      </c>
-      <c r="G17" s="2" t="inlineStr">
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>-2,73; 0,72</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
         <is>
           <t>-11,07; 29,31</t>
         </is>
       </c>
-      <c r="H17" s="2" t="inlineStr">
+      <c r="H19" s="2" t="inlineStr">
         <is>
           <t>-2,67; 36,54</t>
         </is>
       </c>
-      <c r="I17" s="2" t="inlineStr">
+      <c r="I19" s="2" t="inlineStr">
         <is>
           <t>-19,65; 14,98</t>
         </is>
       </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t>-28,28; -4,5</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>-30,21; 9,03</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="11">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1325,6 +1425,7 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A18:A19"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/trans_bre/P16A12-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P16A12-Edad-trans_bre.xlsx
@@ -668,22 +668,22 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-1,13; 0,0</t>
+          <t>-0,89; 0,0</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-0,57; 1,45</t>
+          <t>-0,59; 1,62</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-1,21; 0,0</t>
+          <t>-1,39; 0,0</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,03</t>
+          <t>0,0; 1,89</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -768,22 +768,22 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-0,59; 0,69</t>
+          <t>-0,73; 0,64</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-1,79; 1,14</t>
+          <t>-1,96; 1,02</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-0,53; 0,85</t>
+          <t>-0,51; 0,98</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-2,37; 0,28</t>
+          <t>-1,91; 0,25</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -793,7 +793,7 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-79,43; 149,55</t>
+          <t>-79,39; 117,65</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-2,12; 0,29</t>
+          <t>-2,08; 0,28</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,17; 2,44</t>
+          <t>-0,0; 2,31</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-1,35; 0,87</t>
+          <t>-1,32; 1,07</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-2,51; 0,24</t>
+          <t>-2,4; 0,21</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-83,99; 37,39</t>
+          <t>-83,42; 33,07</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-5,27; 1235,76</t>
+          <t>-22,29; 1232,55</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-70,3; 158,66</t>
+          <t>-68,5; 168,11</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-82,33; 33,07</t>
+          <t>-81,29; 38,67</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-3,5; 1,11</t>
+          <t>-3,53; 1,24</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-2,24; 1,96</t>
+          <t>-2,42; 2,09</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-4,89; -0,09</t>
+          <t>-4,64; -0,09</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-4,35; 1,29</t>
+          <t>-4,17; 1,36</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-62,64; 38,05</t>
+          <t>-61,56; 42,56</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-49,09; 72,64</t>
+          <t>-49,92; 93,74</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-69,11; 1,63</t>
+          <t>-66,94; 1,36</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-63,56; 51,09</t>
+          <t>-63,02; 48,42</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-6,26; 2,41</t>
+          <t>-6,38; 2,13</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-4,18; 4,69</t>
+          <t>-3,93; 4,61</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-5,21; 3,21</t>
+          <t>-5,91; 3,45</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-9,24; -3,16</t>
+          <t>-9,33; -3,33</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-43,71; 26,59</t>
+          <t>-43,79; 20,36</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-32,06; 52,81</t>
+          <t>-29,53; 49,83</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-35,09; 32,03</t>
+          <t>-38,45; 34,06</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-62,57; -28,9</t>
+          <t>-63,25; -30,21</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-4,47; 7,08</t>
+          <t>-5,4; 7,19</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-12,21; 1,76</t>
+          <t>-12,13; 2,37</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-11,22; 1,3</t>
+          <t>-11,3; 1,86</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-18,74; -3,96</t>
+          <t>-19,05; -3,78</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-19,55; 42,68</t>
+          <t>-24,11; 43,03</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-37,28; 6,94</t>
+          <t>-36,81; 9,38</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-37,06; 5,24</t>
+          <t>-37,39; 8,56</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-81,78; -18,4</t>
+          <t>-79,79; -18,41</t>
         </is>
       </c>
     </row>
@@ -1268,42 +1268,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-7,42; 7,46</t>
+          <t>-6,75; 7,61</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-5,62; 9,49</t>
+          <t>-5,56; 9,43</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-14,06; 0,74</t>
+          <t>-14,62; 0,47</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-3,58; 6,41</t>
+          <t>-3,94; 6,53</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-30,44; 44,67</t>
+          <t>-27,62; 48,23</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-16,97; 39,19</t>
+          <t>-16,89; 38,07</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-38,51; 2,11</t>
+          <t>-39,98; 1,71</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-11,28; 26,18</t>
+          <t>-12,19; 26,29</t>
         </is>
       </c>
     </row>
@@ -1368,42 +1368,42 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-0,69; 1,48</t>
+          <t>-0,61; 1,62</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-0,22; 2,43</t>
+          <t>-0,34; 2,41</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-1,75; 1,14</t>
+          <t>-1,96; 0,79</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-2,73; 0,72</t>
+          <t>-2,71; 0,55</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-11,07; 29,31</t>
+          <t>-10,23; 31,06</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-2,67; 36,54</t>
+          <t>-4,12; 36,34</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-19,65; 14,98</t>
+          <t>-21,26; 10,53</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-30,21; 9,03</t>
+          <t>-31,18; 5,28</t>
         </is>
       </c>
     </row>
